--- a/excel/traffic_202308.xlsx
+++ b/excel/traffic_202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>08/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>08/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>08/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>08/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>08/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>08/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>08/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>08/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>08/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>08/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>08/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>08/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>08/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>08/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>08/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>08/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>08/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>08/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>08/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>08/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>08/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>08/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>08/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>08/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>08/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>08/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>08/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>08/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>08/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>08/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>08/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -730,22 +735,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -760,39 +765,44 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>1600</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -807,7 +817,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -827,7 +837,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -842,7 +852,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -852,7 +862,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -867,7 +877,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -902,22 +912,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -942,29 +952,34 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>8165</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>1200</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1074,27 +1089,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1109,34 +1124,39 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>1600</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>蔡俊輝</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alex Tsai</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1290,6 +1310,11 @@
         </is>
       </c>
       <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1298,17 +1323,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1408,27 +1433,27 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1443,44 +1468,49 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>1102</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1580,7 +1610,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1590,17 +1620,17 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1610,7 +1640,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1620,39 +1650,44 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>陳聿恩</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Kitty Chen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1752,7 +1787,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1807,24 +1842,29 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>葉美妙</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Karen Yeh</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1924,7 +1964,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1979,24 +2019,29 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2096,7 +2141,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2151,24 +2196,29 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>朱傑</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Jason Chu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2268,7 +2318,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2323,24 +2373,29 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2440,22 +2495,22 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2465,7 +2520,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2475,7 +2530,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2495,24 +2550,29 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>2160</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2617,7 +2677,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2632,12 +2692,12 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2647,7 +2707,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2667,24 +2727,29 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>劉學仁</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Jason Liu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2789,7 +2854,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2839,24 +2904,29 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2956,7 +3026,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3011,24 +3081,29 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3128,12 +3203,12 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3143,7 +3218,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -3163,17 +3238,17 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3183,24 +3258,29 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3300,7 +3380,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -3310,7 +3390,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3320,7 +3400,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -3335,7 +3415,7 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -3355,24 +3435,29 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3472,27 +3557,27 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -3507,44 +3592,49 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>董宇珊</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Joanne Tung</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3644,17 +3734,17 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3664,7 +3754,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3679,44 +3769,49 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3816,7 +3911,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -3871,24 +3966,29 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>張榕珊</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Sandy Chang</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3998,27 +4098,27 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -4028,39 +4128,44 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>林威宇</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Will Lin</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4214,6 +4319,11 @@
         </is>
       </c>
       <c r="AH22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4222,17 +4332,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>林彥廷</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Tim Lin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4332,7 +4442,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -4387,24 +4497,29 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>陳楨紘</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Jane Chen</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4504,7 +4619,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -4514,27 +4629,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -4544,39 +4659,44 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
           <t>360</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>吳東穎</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Richie Wu</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4676,7 +4796,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -4731,24 +4851,29 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4778,7 +4903,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4903,24 +5028,29 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5020,7 +5150,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -5040,7 +5170,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -5074,6 +5204,11 @@
         </is>
       </c>
       <c r="AH27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
         <is>
           <t>360</t>
         </is>
@@ -5082,17 +5217,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5132,7 +5267,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -5147,7 +5282,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1486</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5157,7 +5292,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1751</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -5172,7 +5307,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -5192,27 +5327,27 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -5227,44 +5362,49 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>6692</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5364,7 +5504,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -5384,7 +5524,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -5404,7 +5544,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5414,29 +5554,34 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>4058</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5536,7 +5681,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -5586,29 +5731,34 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>1425</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5708,32 +5858,32 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5743,27 +5893,32 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5935,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5880,12 +6035,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5895,17 +6050,17 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -5915,7 +6070,7 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
@@ -5935,24 +6090,29 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>林威宇</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Will Lin</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6052,7 +6212,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -6062,22 +6222,22 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -6092,39 +6252,44 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
           <t>360</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6278,6 +6443,11 @@
         </is>
       </c>
       <c r="AH34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6286,17 +6456,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6396,7 +6566,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -6451,24 +6621,29 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6553,7 +6728,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -6578,22 +6753,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -6608,39 +6783,44 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
           <t>360</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>林彥廷</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tim Lin</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6740,7 +6920,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -6750,22 +6930,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -6780,39 +6960,44 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6912,7 +7097,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -6922,22 +7107,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6957,34 +7142,39 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
           <t>360</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7084,12 +7274,12 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -7104,7 +7294,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -7119,7 +7309,7 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
@@ -7139,24 +7329,29 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>黃冠叡</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ray Huang</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7266,12 +7461,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -7306,29 +7501,34 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7428,12 +7628,12 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -7448,12 +7648,12 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -7463,7 +7663,7 @@
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
@@ -7482,6 +7682,11 @@
         </is>
       </c>
       <c r="AH41" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
         <is>
           <t>2880</t>
         </is>
@@ -7490,22 +7695,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -7515,7 +7720,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -7530,27 +7735,27 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7565,27 +7770,27 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -7600,27 +7805,27 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -7635,44 +7840,49 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7772,12 +7982,12 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -7807,7 +8017,7 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
@@ -7827,24 +8037,29 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7954,22 +8169,22 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -7979,44 +8194,49 @@
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>5714</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8116,12 +8336,12 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -8141,7 +8361,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -8151,7 +8371,7 @@
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
@@ -8166,10 +8386,15 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
         <is>
           <t>2880</t>
         </is>
@@ -8178,17 +8403,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8298,7 +8523,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -8308,12 +8533,12 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -8323,44 +8548,49 @@
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>2160</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8460,27 +8690,27 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -8500,39 +8730,44 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>1300</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8632,27 +8867,27 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -8667,44 +8902,49 @@
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8714,7 +8954,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8724,7 +8964,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8739,27 +8979,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -8774,27 +9014,27 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -8804,32 +9044,32 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -8844,39 +9084,44 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>1200</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9030,6 +9275,11 @@
         </is>
       </c>
       <c r="AH50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9038,17 +9288,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9148,27 +9398,27 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -9183,44 +9433,49 @@
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>吳佳玉</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Joy Wu</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -9320,22 +9575,22 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
           <t>200</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -9345,7 +9600,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -9355,19 +9610,19 @@
       </c>
       <c r="AD52" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
           <t>200</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="AF52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AG52" t="inlineStr">
         <is>
           <t>200</t>
@@ -9375,24 +9630,29 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>1600</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9492,27 +9752,27 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -9547,24 +9807,29 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>劉家瑜</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Scott Liu</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9664,7 +9929,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -9674,22 +9939,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -9704,39 +9969,44 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9836,12 +10106,12 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -9861,7 +10131,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -9871,7 +10141,7 @@
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
@@ -9891,24 +10161,29 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9978,7 +10253,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -9988,7 +10263,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -10008,27 +10283,27 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>16</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -10043,44 +10318,49 @@
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>張晉榮</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Barton Chang</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10180,27 +10460,27 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -10215,44 +10495,49 @@
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>1230</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10352,12 +10637,12 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -10387,44 +10672,49 @@
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10524,27 +10814,27 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -10559,44 +10849,49 @@
       </c>
       <c r="AD59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10696,27 +10991,27 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -10731,44 +11026,49 @@
       </c>
       <c r="AD60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>林育田</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kevin Lin</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10878,22 +11178,22 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -10908,39 +11208,44 @@
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11040,12 +11345,12 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -11065,7 +11370,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -11075,7 +11380,7 @@
       </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE62" t="inlineStr">
@@ -11085,7 +11390,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -11095,24 +11400,29 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11212,7 +11522,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -11222,12 +11532,12 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -11237,7 +11547,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -11257,34 +11567,39 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
         <is>
           <t>360</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>2160</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -11384,7 +11699,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -11394,22 +11709,22 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -11424,39 +11739,44 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH64" t="inlineStr">
         <is>
           <t>360</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>董宇珊</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Joanne Tung</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11556,7 +11876,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -11566,22 +11886,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -11611,24 +11931,29 @@
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>1440</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11668,7 +11993,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -11703,7 +12028,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2091</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -11718,7 +12043,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -11733,7 +12058,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -11743,12 +12068,12 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -11763,44 +12088,49 @@
       </c>
       <c r="AD66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>5665</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11910,22 +12240,22 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -11940,39 +12270,44 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2095</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -12007,7 +12342,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -12042,7 +12377,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2091</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -12057,7 +12392,7 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -12082,22 +12417,22 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -12112,39 +12447,44 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>7760</t>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -12254,22 +12594,22 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -12284,39 +12624,44 @@
       </c>
       <c r="AE69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>陳緯綺</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Vicky Chen</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -12470,6 +12815,11 @@
         </is>
       </c>
       <c r="AH70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -12486,29 +12836,24 @@
           <t>08</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2,155</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1,503</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -12518,132 +12863,137 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
           <t>3,379</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>1,546</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O71" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
           <t>1,751</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>2,151</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>1,920</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>2,151</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>1,904</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>1,926</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>2,286</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>16,600</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>9,360</t>
-        </is>
-      </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>9,776</t>
+          <t>10,176</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>10,837</t>
+          <t>10,740</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>8,090</t>
+          <t>10,644</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>1,120</t>
+          <t>9,410</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,280</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
-          <t>11,925</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>9,200</t>
+          <t>11,855</t>
         </is>
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>10,269</t>
+          <t>9,600</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>10,419</t>
+          <t>13,956</t>
         </is>
       </c>
       <c r="AH71" t="inlineStr">
         <is>
-          <t>114,991</t>
+          <t>9,080</t>
+        </is>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>99,880</t>
         </is>
       </c>
     </row>

--- a/excel/traffic_202308.xlsx
+++ b/excel/traffic_202308.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI71"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -730,7 +730,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1800</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1800</t>
         </is>
       </c>
     </row>
@@ -1261,32 +1261,32 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1301,22 +1301,22 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1800</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1051</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>2153</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
@@ -1792,22 +1792,22 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1827,27 +1827,27 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -1969,22 +1969,22 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2004,27 +2004,27 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2146,27 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2181,27 +2181,27 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -2323,32 +2323,32 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2358,27 +2358,27 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2854,27 +2854,27 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2889,27 +2889,27 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -3031,27 +3031,27 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3066,27 +3066,27 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -3208,27 +3208,27 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3243,27 +3243,27 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -3562,27 +3562,27 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3597,27 +3597,27 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -3739,27 +3739,27 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3774,27 +3774,27 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -3916,32 +3916,32 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -3956,22 +3956,22 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -4270,22 +4270,22 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -4305,27 +4305,27 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -4447,32 +4447,32 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4482,27 +4482,27 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
@@ -4978,32 +4978,32 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
@@ -5155,17 +5155,17 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -5175,12 +5175,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -5190,27 +5190,27 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5342,12 +5342,12 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -5387,24 +5387,24 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>6692</t>
+          <t>13879</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>495</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -5564,24 +5564,24 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>4058</t>
+          <t>1920</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0AA41</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5686,27 +5686,27 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5721,39 +5721,39 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5863,27 +5863,27 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5898,44 +5898,44 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -6095,19 +6095,19 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -6272,19 +6272,19 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6394,27 +6394,27 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -6429,39 +6429,39 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6571,27 +6571,27 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -6606,39 +6606,39 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -6803,19 +6803,19 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -6975,29 +6975,29 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -7157,19 +7157,19 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -7334,19 +7334,19 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7456,27 +7456,27 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -7491,39 +7491,39 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -7688,19 +7688,19 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7810,27 +7810,27 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -7845,44 +7845,44 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -8042,19 +8042,19 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -8219,19 +8219,19 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -8396,24 +8396,24 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8523,22 +8523,22 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -8553,44 +8553,44 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0AA6</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8695,27 +8695,27 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -8730,54 +8730,54 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>傅子峰</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gibson Fu</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0AA61</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8802,27 +8802,27 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -8837,27 +8837,27 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -8872,27 +8872,27 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -8907,44 +8907,44 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0AA80</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8979,27 +8979,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -9014,27 +9014,27 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -9049,32 +9049,32 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
@@ -9084,44 +9084,44 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1379</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0AA81</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9276,24 +9276,24 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1739</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1739</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>吳佳玉</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Joy Wu</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9403,27 +9403,27 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -9438,44 +9438,44 @@
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>吳佳玉</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Joy Wu</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0AA9</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -9585,22 +9585,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -9615,44 +9615,44 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1153</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0AA940</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9757,27 +9757,27 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -9792,39 +9792,39 @@
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9934,7 +9934,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -9989,24 +9989,24 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -10086,7 +10086,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -10116,22 +10116,22 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>16</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -10146,39 +10146,39 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>48</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>蔡俊輝</t>
+          <t>張晉榮</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Alex Tsai</t>
+          <t>Barton Chang</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -10293,12 +10293,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
@@ -10343,24 +10343,24 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>2560</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>張晉榮</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Barton Chang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10465,27 +10465,27 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -10500,39 +10500,39 @@
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10642,27 +10642,27 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -10677,39 +10677,39 @@
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10819,27 +10819,27 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -10854,39 +10854,39 @@
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -10996,27 +10996,27 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -11031,39 +11031,39 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -11228,24 +11228,24 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -11385,12 +11385,12 @@
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -11405,19 +11405,19 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -11582,19 +11582,19 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -11739,49 +11739,49 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2095</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -11851,7 +11851,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2091</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -11886,22 +11886,22 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -11936,24 +11936,24 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>7760</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11993,7 +11993,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>2091</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -12058,27 +12058,27 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -12093,39 +12093,39 @@
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>5665</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -12235,27 +12235,27 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>300</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -12270,39 +12270,39 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>300</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2700</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -12412,27 +12412,27 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -12447,39 +12447,39 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -12644,34 +12644,29 @@
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,155</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -12681,7 +12676,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,503</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -12696,27 +12691,27 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>420</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,379</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,546</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -12726,32 +12721,32 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,751</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,151</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,920</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,286</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -12766,32 +12761,32 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19,360</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19,016</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,286</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,263</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17,890</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,739</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
@@ -12801,199 +12796,27 @@
       </c>
       <c r="AE70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21,275</t>
         </is>
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18,440</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22,436</t>
         </is>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21,679</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>3,379</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>1,546</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>1,751</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>2,151</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>1,920</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>1,926</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>10,176</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>10,740</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>10,644</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>9,410</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>1,280</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>11,855</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>9,600</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>13,956</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>9,080</t>
-        </is>
-      </c>
-      <c r="AI71" t="inlineStr">
-        <is>
-          <t>99,880</t>
+          <t>209,811</t>
         </is>
       </c>
     </row>
